--- a/xlsx/重工業_intext.xlsx
+++ b/xlsx/重工業_intext.xlsx
@@ -29,7 +29,7 @@
     <t>本溪市</t>
   </si>
   <si>
-    <t>政策_政策_美國_重工業</t>
+    <t>体育运动_体育运动_南非_重工業</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%97%A5%E6%9C%AC%E8%A3%BD%E9%90%B5</t>
